--- a/Scores/manual_polarity.xlsx
+++ b/Scores/manual_polarity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\OneDrive\Desktop\ARP\Practice\ARP\Src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\OneDrive\Desktop\ARP\Practice\ARP\Scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66494F3-EBA6-4A63-9243-1DB980FFEE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FC7E05-8CF9-44CA-89AE-E68028287068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="99">
   <si>
     <t>COMBINED-Q4-17-Shareholder-Letter-FINAL</t>
   </si>
@@ -225,6 +225,105 @@
   </si>
   <si>
     <t>Averaged Manual Score</t>
+  </si>
+  <si>
+    <t>CleanReportName</t>
+  </si>
+  <si>
+    <t>FINAL-Q1-11-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q2-11-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q3-11-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q4-11-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q1-12-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q2-12-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q3-12-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q4-12-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q1-13-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q2-13-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q3-13-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q4-13-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q1-14-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q2-14-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q3-14-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q4-14-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q1-15-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q2-15-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q3-15-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q4-15-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q1-16-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q2-16-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q3-16-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q4-16-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q1-17-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q2-17-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q3-17-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q4-17-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q2-19-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q2-20-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q1-23-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q4-20-Shareholder-Letter</t>
   </si>
 </sst>
 </file>
@@ -348,32 +447,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -415,13 +496,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -434,6 +508,31 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -450,11 +549,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{741FCAEC-D4FC-42CB-AA73-9BE4D725FDE9}" name="Table1" displayName="Table1" ref="B2:C52" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{741FCAEC-D4FC-42CB-AA73-9BE4D725FDE9}" name="Table1" displayName="Table1" ref="B2:C52" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="B2:C52" xr:uid="{741FCAEC-D4FC-42CB-AA73-9BE4D725FDE9}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8A14034B-DF54-4BA6-B691-299CD3791059}" name="ReportName" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{BD124B17-EF74-4748-9FF3-FA72205227B1}" name="Averaged Manual Score" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{8A14034B-DF54-4BA6-B691-299CD3791059}" name="ReportName" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{BD124B17-EF74-4748-9FF3-FA72205227B1}" name="Averaged Manual Score" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -723,576 +822,730 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="54.36328125" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="31.6328125" customWidth="1"/>
+    <col min="2" max="3" width="54.36328125" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.33333333329999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.16666666669999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.4833333333</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.41666666670000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.41666666670000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
         <v>-8.3333333329999995E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
         <v>0.51666666670000005</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.33333333329999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
         <v>0.33333333329999998</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
         <v>0.33333333329999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
         <v>0.33333333329999998</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
         <v>0.41666666670000002</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
         <v>0.41666666670000002</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1">
         <v>-8.3333333329999995E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1">
         <v>0.41666666670000002</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1">
         <v>0.41666666670000002</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1">
         <v>0.41666666670000002</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1">
         <v>0.56666666669999999</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1">
         <v>0.31666666669999999</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
         <v>49</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>0.41666666670000002</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1">
         <v>-8.3333333329999995E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
         <v>50</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1">
         <v>0.33333333329999998</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
         <v>51</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D33" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
         <v>52</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="1">
         <v>0.4833333333</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1">
         <v>0.33333333329999998</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="1">
         <v>0.33333333329999998</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="1">
         <v>0.43333333330000001</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
         <v>54</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="1">
+      <c r="D38" s="1">
         <v>0.16666666669999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="1">
         <v>0.43333333330000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="1">
         <v>0.41666666670000002</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="1">
         <v>0.4833333333</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="1">
         <v>0.125</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="1">
         <v>0.16666666669999999</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="1">
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
         <v>55</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="1">
+      <c r="D47" s="1">
         <v>0.65</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="1">
         <v>0.43333333330000001</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="1">
         <v>0.41666666670000002</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="1">
         <v>0.56666666669999999</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="1">
         <v>0.4833333333</v>
       </c>
     </row>
@@ -1306,7 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F1C0FF-3C43-4821-B10A-7B8097C68BC7}">
   <dimension ref="B2:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
